--- a/exe/TSV/Excel/ApproachingAlarmConditionList.xlsx
+++ b/exe/TSV/Excel/ApproachingAlarmConditionList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26740B8-4B01-4A09-B503-C8960543ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC0626E-594C-4C13-AA79-2940073A4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9255" yWindow="4185" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="5085" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接近警報鳴動条件一覧" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/ApproachingAlarmConditionList.xlsx
+++ b/exe/TSV/Excel/ApproachingAlarmConditionList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9762FC4-849E-44BC-B83B-271887600618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E3BF6-B6C7-4F1E-BAE2-3B8B836C005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="3975" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="4950" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接近警報鳴動条件一覧" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="273">
   <si>
     <t>Station</t>
   </si>
@@ -245,7 +245,7 @@
     <t>下り27T</t>
   </si>
   <si>
-    <t>[(9LC)]</t>
+    <t>[(駒野下り場内9LC)]</t>
   </si>
   <si>
     <t>UP</t>
@@ -299,7 +299,7 @@
     <t>上り74T</t>
   </si>
   <si>
-    <t>[(1RB)]</t>
+    <t>[(津崎上り場内1RB)]</t>
   </si>
   <si>
     <t>[TH71_23T]</t>
@@ -362,568 +362,583 @@
     <t>[[TH65_11LT]]</t>
   </si>
   <si>
+    <t>[[(大道寺下り出発5L)]]</t>
+  </si>
+  <si>
+    <t>[[TH65_44T]]</t>
+  </si>
+  <si>
+    <t>[[46]]:[[(大道寺入換28L)]]</t>
+  </si>
+  <si>
+    <t>TH64</t>
+  </si>
+  <si>
+    <t>上り142T</t>
+  </si>
+  <si>
+    <t>[TH66S_54T]</t>
+  </si>
+  <si>
+    <t>[(54)]:[55]</t>
+  </si>
+  <si>
+    <t>[[TH64_22T]]</t>
+  </si>
+  <si>
+    <t>[[16L]]</t>
+  </si>
+  <si>
+    <t>TH63</t>
+  </si>
+  <si>
+    <t>[TH65_2RT]</t>
+  </si>
+  <si>
+    <t>[(大道寺上り出発7R)]</t>
+  </si>
+  <si>
+    <t>[TH65_3RT]</t>
+  </si>
+  <si>
+    <t>[(大道寺上り出発8R)]</t>
+  </si>
+  <si>
+    <t>[TH65_11LT]</t>
+  </si>
+  <si>
+    <t>[(大道寺上り出発9R)]</t>
+  </si>
+  <si>
+    <t>[TH65_12LT]</t>
+  </si>
+  <si>
+    <t>[(大道寺上り出発10R)]</t>
+  </si>
+  <si>
+    <t>MT1T</t>
+  </si>
+  <si>
+    <t>TH62</t>
+  </si>
+  <si>
+    <t>DF2T</t>
+  </si>
+  <si>
+    <t>[(11R)]</t>
+  </si>
+  <si>
+    <t>[[TH62_22T]]</t>
+  </si>
+  <si>
+    <t>TH61</t>
+  </si>
+  <si>
+    <t>[TH63_21イT]</t>
+  </si>
+  <si>
+    <t>[[TH61_2RAT]]</t>
+  </si>
+  <si>
+    <t>[[(日野森下り出発3L)]]</t>
+  </si>
+  <si>
+    <t>[[TH61_6LT]]</t>
+  </si>
+  <si>
+    <t>[[(日野森下り出発4L)]]</t>
+  </si>
+  <si>
+    <t>TH59</t>
+  </si>
+  <si>
+    <t>[TH62_21T]</t>
+  </si>
+  <si>
+    <t>[[TH59_12LT]]</t>
+  </si>
+  <si>
+    <t>TH58</t>
+  </si>
+  <si>
+    <t>[TH61_5RT]</t>
+  </si>
+  <si>
+    <t>[[TH58_9LT]]</t>
+  </si>
+  <si>
+    <t>[[10L]]</t>
+  </si>
+  <si>
+    <t>TH57</t>
+  </si>
+  <si>
+    <t>[TH59_11RT]</t>
+  </si>
+  <si>
+    <t>[(13R)]</t>
+  </si>
+  <si>
+    <t>[[TH57_14LT]]</t>
+  </si>
+  <si>
+    <t>[[(三郷下り出発12L)]]</t>
+  </si>
+  <si>
+    <t>7T</t>
+  </si>
+  <si>
+    <t>9T</t>
+  </si>
+  <si>
+    <t>[TST]</t>
+  </si>
+  <si>
+    <t>[41イT]</t>
+  </si>
+  <si>
+    <t>[41ロT]</t>
+  </si>
+  <si>
+    <t>[43イT]</t>
+  </si>
+  <si>
+    <t>[43ロT]</t>
+  </si>
+  <si>
+    <t>[44T]</t>
+  </si>
+  <si>
+    <t>[45T]</t>
+  </si>
+  <si>
+    <t>[6LT]</t>
+  </si>
+  <si>
+    <t>[(2L)]</t>
+  </si>
+  <si>
+    <t>[9LCT]</t>
+  </si>
+  <si>
+    <t>[(2L)]:[(6L)]</t>
+  </si>
+  <si>
+    <t>[50ロT]</t>
+  </si>
+  <si>
+    <t>[9LT]</t>
+  </si>
+  <si>
+    <t>27T</t>
+  </si>
+  <si>
+    <t>[(2L)]:[(6L)]:[(9LC)]</t>
+  </si>
+  <si>
+    <t>[21イT]</t>
+  </si>
+  <si>
+    <t>[21ロT]</t>
+  </si>
+  <si>
+    <t>[21]:[(24)]</t>
+  </si>
+  <si>
+    <t>[22T]</t>
+  </si>
+  <si>
+    <t>[23T]</t>
+  </si>
+  <si>
+    <t>[(26)]</t>
+  </si>
+  <si>
+    <t>[25T]</t>
+  </si>
+  <si>
+    <t>[26イT]</t>
+  </si>
+  <si>
+    <t>[24T]</t>
+  </si>
+  <si>
+    <t>[26ロT]</t>
+  </si>
+  <si>
+    <t>6T</t>
+  </si>
+  <si>
+    <t>8T</t>
+  </si>
+  <si>
+    <t>35T</t>
+  </si>
+  <si>
+    <t>41T</t>
+  </si>
+  <si>
+    <t>45T</t>
+  </si>
+  <si>
+    <t>49T</t>
+  </si>
+  <si>
+    <t>56T</t>
+  </si>
+  <si>
+    <t>62T</t>
+  </si>
+  <si>
+    <t>68T</t>
+  </si>
+  <si>
+    <t>74T</t>
+  </si>
+  <si>
+    <t>105T</t>
+  </si>
+  <si>
+    <t>[(5L)]:[(2L)]</t>
+  </si>
+  <si>
+    <t>103T</t>
+  </si>
+  <si>
+    <t>[5LT]</t>
+  </si>
+  <si>
+    <t>[5LBT]</t>
+  </si>
+  <si>
+    <t>[2LT]</t>
+  </si>
+  <si>
+    <t>89T</t>
+  </si>
+  <si>
+    <t>[(1RB)]:[(5R)]</t>
+  </si>
+  <si>
+    <t>[21T]</t>
+  </si>
+  <si>
+    <t>[21]:[(5R)]</t>
+  </si>
+  <si>
+    <t>[1RBT]</t>
+  </si>
+  <si>
+    <t>[(5R)]</t>
+  </si>
+  <si>
+    <t>[SST]</t>
+  </si>
+  <si>
+    <t>86T</t>
+  </si>
+  <si>
+    <t>92T</t>
+  </si>
+  <si>
+    <t>117T</t>
+  </si>
+  <si>
+    <t>111T</t>
+  </si>
+  <si>
+    <t>108T</t>
+  </si>
+  <si>
+    <t>114T</t>
+  </si>
+  <si>
+    <t>120T</t>
+  </si>
+  <si>
+    <t>124T</t>
+  </si>
+  <si>
+    <t>[53T]</t>
+  </si>
+  <si>
+    <t>[5LET]</t>
+  </si>
+  <si>
+    <t>151T</t>
+  </si>
+  <si>
+    <t>145T</t>
+  </si>
+  <si>
+    <t>143T</t>
+  </si>
+  <si>
+    <t>137T</t>
+  </si>
+  <si>
+    <t>[1RT]</t>
+  </si>
+  <si>
+    <t>[32]:[(9R)]</t>
+  </si>
+  <si>
+    <t>[32T]</t>
+  </si>
+  <si>
+    <t>[(9R)]</t>
+  </si>
+  <si>
+    <t>[33ロT]</t>
+  </si>
+  <si>
+    <t>[33]:[35]:[36]</t>
+  </si>
+  <si>
+    <t>[35ロT]</t>
+  </si>
+  <si>
+    <t>[36イT]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>136T</t>
+  </si>
+  <si>
+    <t>142T</t>
+  </si>
+  <si>
+    <t>146T</t>
+  </si>
+  <si>
+    <t>[[XT]]</t>
+  </si>
+  <si>
+    <t>[[50]]:[[(49)]]:[[(48)]]:[[46]]:[[(12L)]]:[[(6L)]]</t>
+  </si>
+  <si>
+    <t>[[50イT]]</t>
+  </si>
+  <si>
+    <t>[[49T]]</t>
+  </si>
+  <si>
+    <t>[[47T]]</t>
+  </si>
+  <si>
+    <t>[[(48)]]:[[46]]:[[(12L)]]:[[(6L)]]</t>
+  </si>
+  <si>
+    <t>[[48T]]</t>
+  </si>
+  <si>
+    <t>[[44T]]</t>
+  </si>
+  <si>
+    <t>[[46]]:[[(12L)]]:[[(6L)]]</t>
+  </si>
+  <si>
+    <t>[[11LT]]</t>
+  </si>
+  <si>
     <t>[[(5L)]]</t>
   </si>
   <si>
-    <t>[[TH65_44T]]</t>
-  </si>
-  <si>
-    <t>[[46]]:[[(28L)]]</t>
-  </si>
-  <si>
-    <t>TH64</t>
-  </si>
-  <si>
-    <t>上り142T</t>
-  </si>
-  <si>
-    <t>[TH66S_54T]</t>
-  </si>
-  <si>
-    <t>[(54)]:[55]</t>
-  </si>
-  <si>
-    <t>[[TH64_22T]]</t>
-  </si>
-  <si>
-    <t>[[16L]]</t>
-  </si>
-  <si>
-    <t>TH63</t>
-  </si>
-  <si>
-    <t>[TH65_2RT]</t>
+    <t>[[12LT]]</t>
+  </si>
+  <si>
+    <t>[[(6L)]]</t>
+  </si>
+  <si>
+    <t>[[42ロT]]</t>
+  </si>
+  <si>
+    <t>[[(42)]]</t>
+  </si>
+  <si>
+    <t>[[42イT]]</t>
+  </si>
+  <si>
+    <t>[[TST]]</t>
+  </si>
+  <si>
+    <t>[(1RC)]</t>
+  </si>
+  <si>
+    <t>[51]:[52]:[53]</t>
+  </si>
+  <si>
+    <t>[51ロT]</t>
+  </si>
+  <si>
+    <t>[52T]</t>
+  </si>
+  <si>
+    <t>[54T]</t>
+  </si>
+  <si>
+    <t>[55T]</t>
+  </si>
+  <si>
+    <t>[1RCT]</t>
+  </si>
+  <si>
+    <t>156T</t>
+  </si>
+  <si>
+    <t>[[22T]]</t>
+  </si>
+  <si>
+    <t>[[(22)]]:[[(12L)]]</t>
+  </si>
+  <si>
+    <t>[[22]]:[[(13L)]]</t>
+  </si>
+  <si>
+    <t>[[14RT]]</t>
+  </si>
+  <si>
+    <t>[[(12L)]]</t>
+  </si>
+  <si>
+    <t>[[12RT]]</t>
+  </si>
+  <si>
+    <t>[[15RT]]</t>
+  </si>
+  <si>
+    <t>[[(13L)]]</t>
+  </si>
+  <si>
+    <t>[[15LT]]</t>
+  </si>
+  <si>
+    <t>14L</t>
+  </si>
+  <si>
+    <t>[[13LT]]</t>
+  </si>
+  <si>
+    <t>[[21T]]</t>
+  </si>
+  <si>
+    <t>DF1T</t>
+  </si>
+  <si>
+    <t>[41]:[43]:[(2R)]</t>
+  </si>
+  <si>
+    <t>[41T]</t>
+  </si>
+  <si>
+    <t>[2RT]</t>
   </si>
   <si>
     <t>[(7R)]</t>
   </si>
   <si>
-    <t>[TH65_3RT]</t>
-  </si>
-  <si>
-    <t>[(8R)]</t>
-  </si>
-  <si>
-    <t>[TH65_11LT]</t>
-  </si>
-  <si>
-    <t>[(9R)]</t>
-  </si>
-  <si>
-    <t>[TH65_12LT]</t>
-  </si>
-  <si>
-    <t>[(10R)]</t>
-  </si>
-  <si>
-    <t>MT1T</t>
-  </si>
-  <si>
-    <t>TH62</t>
-  </si>
-  <si>
-    <t>DF2T</t>
-  </si>
-  <si>
-    <t>[(11R)]</t>
-  </si>
-  <si>
-    <t>[[TH62_22T]]</t>
-  </si>
-  <si>
-    <t>TH61</t>
-  </si>
-  <si>
-    <t>[TH63_21イT]</t>
-  </si>
-  <si>
-    <t>[[TH61_2RAT]]</t>
-  </si>
-  <si>
-    <t>[[(3L)]]</t>
-  </si>
-  <si>
-    <t>[[TH61_6LT]]</t>
+    <t>[49T]</t>
+  </si>
+  <si>
+    <t>[50]:(11R)</t>
+  </si>
+  <si>
+    <t>[50イT]</t>
+  </si>
+  <si>
+    <t>[XT]</t>
+  </si>
+  <si>
+    <t>(11R)</t>
+  </si>
+  <si>
+    <t>[[(14L)]]:[[(12L)]]</t>
+  </si>
+  <si>
+    <t>[[(15L)]]:[[(13L)]]</t>
+  </si>
+  <si>
+    <t>[[22ロT]]</t>
+  </si>
+  <si>
+    <t>[[22イT]]</t>
+  </si>
+  <si>
+    <t>[[21ロT]]</t>
+  </si>
+  <si>
+    <t>16L</t>
+  </si>
+  <si>
+    <t>[[21イT]]</t>
+  </si>
+  <si>
+    <t>FMT</t>
+  </si>
+  <si>
+    <t>[(12R)]:[(14R)]</t>
+  </si>
+  <si>
+    <t>[(13R)]:[(15R)]</t>
+  </si>
+  <si>
+    <t>[(21)]:[(14R)]</t>
+  </si>
+  <si>
+    <t>[21]:[(15R)]</t>
+  </si>
+  <si>
+    <t>[12LT]</t>
+  </si>
+  <si>
+    <t>[(14R)]</t>
+  </si>
+  <si>
+    <t>[12RT]</t>
+  </si>
+  <si>
+    <t>[13LT]</t>
+  </si>
+  <si>
+    <t>[(15R)]</t>
+  </si>
+  <si>
+    <t>[15LT]</t>
+  </si>
+  <si>
+    <t>[14RT]</t>
+  </si>
+  <si>
+    <t>[15RT]</t>
+  </si>
+  <si>
+    <t>[[22]]:[[(12L)]]</t>
+  </si>
+  <si>
+    <t>[[(22)]]:[[(13L)]]</t>
+  </si>
+  <si>
+    <t>MT2T</t>
+  </si>
+  <si>
+    <t>[21]:[(14R)]</t>
+  </si>
+  <si>
+    <t>[(21)]:[(15R)]</t>
+  </si>
+  <si>
+    <t>[22イT]</t>
+  </si>
+  <si>
+    <t>[22ロT]</t>
+  </si>
+  <si>
+    <t>[[6LT]]</t>
   </si>
   <si>
     <t>[[(4L)]]</t>
-  </si>
-  <si>
-    <t>TH59</t>
-  </si>
-  <si>
-    <t>[TH62_21T]</t>
-  </si>
-  <si>
-    <t>[[TH59_12LT]]</t>
-  </si>
-  <si>
-    <t>TH58</t>
-  </si>
-  <si>
-    <t>[TH61_5RT]</t>
-  </si>
-  <si>
-    <t>[[TH58_9LT]]</t>
-  </si>
-  <si>
-    <t>[[10L]]</t>
-  </si>
-  <si>
-    <t>TH57</t>
-  </si>
-  <si>
-    <t>[TH59_11RT]</t>
-  </si>
-  <si>
-    <t>[(13R)]</t>
-  </si>
-  <si>
-    <t>[[TH57_14LT]]</t>
-  </si>
-  <si>
-    <t>[[(12L)]]</t>
-  </si>
-  <si>
-    <t>7T</t>
-  </si>
-  <si>
-    <t>9T</t>
-  </si>
-  <si>
-    <t>[TST]</t>
-  </si>
-  <si>
-    <t>[41イT]</t>
-  </si>
-  <si>
-    <t>[41ロT]</t>
-  </si>
-  <si>
-    <t>[43イT]</t>
-  </si>
-  <si>
-    <t>[43ロT]</t>
-  </si>
-  <si>
-    <t>[44T]</t>
-  </si>
-  <si>
-    <t>[45T]</t>
-  </si>
-  <si>
-    <t>[6LT]</t>
-  </si>
-  <si>
-    <t>[(2L)]</t>
-  </si>
-  <si>
-    <t>[9LCT]</t>
-  </si>
-  <si>
-    <t>[(2L)]:[(6L)]</t>
-  </si>
-  <si>
-    <t>[50ロT]</t>
-  </si>
-  <si>
-    <t>[9LT]</t>
-  </si>
-  <si>
-    <t>27T</t>
-  </si>
-  <si>
-    <t>[(2L)]:[(6L)]:[(9LC)]</t>
-  </si>
-  <si>
-    <t>[21イT]</t>
-  </si>
-  <si>
-    <t>[21ロT]</t>
-  </si>
-  <si>
-    <t>[21]:[(24)]</t>
-  </si>
-  <si>
-    <t>[22T]</t>
-  </si>
-  <si>
-    <t>[23T]</t>
-  </si>
-  <si>
-    <t>[(26)]</t>
-  </si>
-  <si>
-    <t>[25T]</t>
-  </si>
-  <si>
-    <t>[26イT]</t>
-  </si>
-  <si>
-    <t>[24T]</t>
-  </si>
-  <si>
-    <t>[26ロT]</t>
-  </si>
-  <si>
-    <t>6T</t>
-  </si>
-  <si>
-    <t>8T</t>
-  </si>
-  <si>
-    <t>35T</t>
-  </si>
-  <si>
-    <t>41T</t>
-  </si>
-  <si>
-    <t>45T</t>
-  </si>
-  <si>
-    <t>49T</t>
-  </si>
-  <si>
-    <t>56T</t>
-  </si>
-  <si>
-    <t>62T</t>
-  </si>
-  <si>
-    <t>68T</t>
-  </si>
-  <si>
-    <t>74T</t>
-  </si>
-  <si>
-    <t>105T</t>
-  </si>
-  <si>
-    <t>[(5L)]:[(2L)]</t>
-  </si>
-  <si>
-    <t>103T</t>
-  </si>
-  <si>
-    <t>[5LT]</t>
-  </si>
-  <si>
-    <t>[5LBT]</t>
-  </si>
-  <si>
-    <t>[2LT]</t>
-  </si>
-  <si>
-    <t>89T</t>
-  </si>
-  <si>
-    <t>[(1RB)]:[(5R)]</t>
-  </si>
-  <si>
-    <t>[21T]</t>
-  </si>
-  <si>
-    <t>[21]:[(5R)]</t>
-  </si>
-  <si>
-    <t>[1RBT]</t>
-  </si>
-  <si>
-    <t>[(5R)]</t>
-  </si>
-  <si>
-    <t>[SST]</t>
-  </si>
-  <si>
-    <t>86T</t>
-  </si>
-  <si>
-    <t>92T</t>
-  </si>
-  <si>
-    <t>117T</t>
-  </si>
-  <si>
-    <t>111T</t>
-  </si>
-  <si>
-    <t>108T</t>
-  </si>
-  <si>
-    <t>114T</t>
-  </si>
-  <si>
-    <t>120T</t>
-  </si>
-  <si>
-    <t>124T</t>
-  </si>
-  <si>
-    <t>[53T]</t>
-  </si>
-  <si>
-    <t>[5LET]</t>
-  </si>
-  <si>
-    <t>151T</t>
-  </si>
-  <si>
-    <t>145T</t>
-  </si>
-  <si>
-    <t>143T</t>
-  </si>
-  <si>
-    <t>137T</t>
-  </si>
-  <si>
-    <t>[1RT]</t>
-  </si>
-  <si>
-    <t>[32]:[(9R)]</t>
-  </si>
-  <si>
-    <t>[32T]</t>
-  </si>
-  <si>
-    <t>[33ロT]</t>
-  </si>
-  <si>
-    <t>[33]:[35]:[36]</t>
-  </si>
-  <si>
-    <t>[35ロT]</t>
-  </si>
-  <si>
-    <t>[36イT]</t>
-  </si>
-  <si>
-    <t>[36]</t>
-  </si>
-  <si>
-    <t>136T</t>
-  </si>
-  <si>
-    <t>142T</t>
-  </si>
-  <si>
-    <t>146T</t>
-  </si>
-  <si>
-    <t>[[XT]]</t>
-  </si>
-  <si>
-    <t>[[50]]:[[(49)]]:[[(48)]]:[[46]]:[[(12L)]]:[[(6L)]]</t>
-  </si>
-  <si>
-    <t>[[50イT]]</t>
-  </si>
-  <si>
-    <t>[[49T]]</t>
-  </si>
-  <si>
-    <t>[[47T]]</t>
-  </si>
-  <si>
-    <t>[[(48)]]:[[46]]:[[(12L)]]:[[(6L)]]</t>
-  </si>
-  <si>
-    <t>[[48T]]</t>
-  </si>
-  <si>
-    <t>[[44T]]</t>
-  </si>
-  <si>
-    <t>[[46]]:[[(12L)]]:[[(6L)]]</t>
-  </si>
-  <si>
-    <t>[[11LT]]</t>
-  </si>
-  <si>
-    <t>[[12LT]]</t>
-  </si>
-  <si>
-    <t>[[(6L)]]</t>
-  </si>
-  <si>
-    <t>[[42ロT]]</t>
-  </si>
-  <si>
-    <t>[[(42)]]</t>
-  </si>
-  <si>
-    <t>[[42イT]]</t>
-  </si>
-  <si>
-    <t>[[TST]]</t>
-  </si>
-  <si>
-    <t>[(1RC)]</t>
-  </si>
-  <si>
-    <t>[51]:[52]:[53]</t>
-  </si>
-  <si>
-    <t>[51ロT]</t>
-  </si>
-  <si>
-    <t>[52T]</t>
-  </si>
-  <si>
-    <t>[54T]</t>
-  </si>
-  <si>
-    <t>[55T]</t>
-  </si>
-  <si>
-    <t>[1RCT]</t>
-  </si>
-  <si>
-    <t>156T</t>
-  </si>
-  <si>
-    <t>[[22T]]</t>
-  </si>
-  <si>
-    <t>[[(22)]]:[[(12L)]]</t>
-  </si>
-  <si>
-    <t>[[22]]:[[(13L)]]</t>
-  </si>
-  <si>
-    <t>[[14RT]]</t>
-  </si>
-  <si>
-    <t>[[12RT]]</t>
-  </si>
-  <si>
-    <t>[[15RT]]</t>
-  </si>
-  <si>
-    <t>[[(13L)]]</t>
-  </si>
-  <si>
-    <t>[[15LT]]</t>
-  </si>
-  <si>
-    <t>14L</t>
-  </si>
-  <si>
-    <t>[[13LT]]</t>
-  </si>
-  <si>
-    <t>[[21T]]</t>
-  </si>
-  <si>
-    <t>DF1T</t>
-  </si>
-  <si>
-    <t>[41]:[43]:[(2R)]</t>
-  </si>
-  <si>
-    <t>[41T]</t>
-  </si>
-  <si>
-    <t>[2RT]</t>
-  </si>
-  <si>
-    <t>[49T]</t>
-  </si>
-  <si>
-    <t>[50]:(11R)</t>
-  </si>
-  <si>
-    <t>[50イT]</t>
-  </si>
-  <si>
-    <t>[XT]</t>
-  </si>
-  <si>
-    <t>(11R)</t>
-  </si>
-  <si>
-    <t>[[(14L)]]:[[(12L)]]</t>
-  </si>
-  <si>
-    <t>[[(15L)]]:[[(13L)]]</t>
-  </si>
-  <si>
-    <t>[[22ロT]]</t>
-  </si>
-  <si>
-    <t>[[22イT]]</t>
-  </si>
-  <si>
-    <t>[[21ロT]]</t>
-  </si>
-  <si>
-    <t>16L</t>
-  </si>
-  <si>
-    <t>[[21イT]]</t>
-  </si>
-  <si>
-    <t>FMT</t>
-  </si>
-  <si>
-    <t>[(12R)]:[(14R)]</t>
-  </si>
-  <si>
-    <t>[(13R)]:[(15R)]</t>
-  </si>
-  <si>
-    <t>[(21)]:[(14R)]</t>
-  </si>
-  <si>
-    <t>[21]:[(15R)]</t>
-  </si>
-  <si>
-    <t>[12LT]</t>
-  </si>
-  <si>
-    <t>[(14R)]</t>
-  </si>
-  <si>
-    <t>[12RT]</t>
-  </si>
-  <si>
-    <t>[13LT]</t>
-  </si>
-  <si>
-    <t>[(15R)]</t>
-  </si>
-  <si>
-    <t>[15LT]</t>
-  </si>
-  <si>
-    <t>[14RT]</t>
-  </si>
-  <si>
-    <t>[15RT]</t>
-  </si>
-  <si>
-    <t>[[22]]:[[(12L)]]</t>
-  </si>
-  <si>
-    <t>[[(22)]]:[[(13L)]]</t>
-  </si>
-  <si>
-    <t>MT2T</t>
-  </si>
-  <si>
-    <t>[21]:[(14R)]</t>
-  </si>
-  <si>
-    <t>[(21)]:[(15R)]</t>
-  </si>
-  <si>
-    <t>[22イT]</t>
-  </si>
-  <si>
-    <t>[22ロT]</t>
-  </si>
-  <si>
-    <t>[[6LT]]</t>
   </si>
   <si>
     <t>[[1RT]]</t>
@@ -1317,7 +1332,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3470,7 +3485,7 @@
         <v>140</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3487,10 +3502,10 @@
         <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3507,10 +3522,10 @@
         <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3527,10 +3542,10 @@
         <v>14</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3565,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F76" s="3"/>
     </row>
@@ -3583,7 +3598,7 @@
         <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -3601,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F78" s="3"/>
     </row>
@@ -3619,10 +3634,10 @@
         <v>8</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3639,10 +3654,10 @@
         <v>8</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3659,10 +3674,10 @@
         <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3679,10 +3694,10 @@
         <v>8</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3699,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3719,10 +3734,10 @@
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3739,10 +3754,10 @@
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3759,10 +3774,10 @@
         <v>8</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3779,10 +3794,10 @@
         <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3799,7 +3814,7 @@
         <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F88" s="3"/>
     </row>
@@ -3817,7 +3832,7 @@
         <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F89" s="3"/>
     </row>
@@ -3843,10 +3858,10 @@
         <v>14</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3863,10 +3878,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3886,7 +3901,7 @@
         <v>157</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3903,10 +3918,10 @@
         <v>14</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3923,10 +3938,10 @@
         <v>14</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3943,7 +3958,7 @@
         <v>14</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>58</v>
@@ -3963,7 +3978,7 @@
         <v>14</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>58</v>
@@ -3983,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F98" s="3"/>
     </row>
@@ -4001,7 +4016,7 @@
         <v>14</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F99" s="3"/>
     </row>
@@ -4019,10 +4034,10 @@
         <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4039,10 +4054,10 @@
         <v>8</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4059,10 +4074,10 @@
         <v>8</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4079,10 +4094,10 @@
         <v>8</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4099,10 +4114,10 @@
         <v>8</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4119,10 +4134,10 @@
         <v>8</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4139,10 +4154,10 @@
         <v>8</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4159,10 +4174,10 @@
         <v>8</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,10 +4194,10 @@
         <v>8</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4202,7 +4217,7 @@
         <v>72</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4219,10 +4234,10 @@
         <v>8</v>
       </c>
       <c r="E110" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4250,7 +4265,7 @@
         <v>157</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4267,10 +4282,10 @@
         <v>14</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,10 +4302,10 @@
         <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4307,10 +4322,10 @@
         <v>14</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4327,10 +4342,10 @@
         <v>14</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4347,10 +4362,10 @@
         <v>14</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4367,10 +4382,10 @@
         <v>14</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4390,7 +4405,7 @@
         <v>72</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,7 +4425,7 @@
         <v>70</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4430,7 +4445,7 @@
         <v>70</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4447,10 +4462,10 @@
         <v>8</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4467,10 +4482,10 @@
         <v>8</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4487,10 +4502,10 @@
         <v>8</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4507,10 +4522,10 @@
         <v>8</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4527,10 +4542,10 @@
         <v>8</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4547,10 +4562,10 @@
         <v>8</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4567,10 +4582,10 @@
         <v>8</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4587,10 +4602,10 @@
         <v>8</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4607,10 +4622,10 @@
         <v>8</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4638,7 +4653,7 @@
         <v>72</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4658,7 +4673,7 @@
         <v>72</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4678,7 +4693,7 @@
         <v>138</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4698,7 +4713,7 @@
         <v>138</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4715,10 +4730,10 @@
         <v>14</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4735,10 +4750,10 @@
         <v>14</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,10 +4770,10 @@
         <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4775,10 +4790,10 @@
         <v>14</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4795,10 +4810,10 @@
         <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4815,10 +4830,10 @@
         <v>14</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4838,7 +4853,7 @@
         <v>113</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -4855,10 +4870,10 @@
         <v>14</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,10 +4890,10 @@
         <v>8</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4895,10 +4910,10 @@
         <v>8</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4915,10 +4930,10 @@
         <v>8</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4935,10 +4950,10 @@
         <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4955,10 +4970,10 @@
         <v>8</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4975,10 +4990,10 @@
         <v>8</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4995,10 +5010,10 @@
         <v>8</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5015,10 +5030,10 @@
         <v>8</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5035,10 +5050,10 @@
         <v>8</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5055,10 +5070,10 @@
         <v>8</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5078,7 +5093,7 @@
         <v>70</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5106,7 +5121,7 @@
         <v>110</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,7 +5141,7 @@
         <v>110</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5146,7 +5161,7 @@
         <v>111</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5163,10 +5178,10 @@
         <v>14</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5183,10 +5198,10 @@
         <v>14</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,10 +5218,10 @@
         <v>14</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5223,10 +5238,10 @@
         <v>14</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5246,7 +5261,7 @@
         <v>70</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,10 +5278,10 @@
         <v>14</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,10 +5298,10 @@
         <v>8</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5303,10 +5318,10 @@
         <v>8</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5323,10 +5338,10 @@
         <v>8</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5343,10 +5358,10 @@
         <v>8</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5363,10 +5378,10 @@
         <v>8</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5383,10 +5398,10 @@
         <v>8</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -5414,7 +5429,7 @@
         <v>138</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -5434,7 +5449,7 @@
         <v>138</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5451,10 +5466,10 @@
         <v>14</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -5471,10 +5486,10 @@
         <v>14</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5491,10 +5506,10 @@
         <v>14</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -5511,10 +5526,10 @@
         <v>14</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -5531,10 +5546,10 @@
         <v>14</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5551,10 +5566,10 @@
         <v>14</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5574,7 +5589,7 @@
         <v>113</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5591,10 +5606,10 @@
         <v>14</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5611,10 +5626,10 @@
         <v>14</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5631,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F183" s="3"/>
     </row>
@@ -5649,7 +5664,7 @@
         <v>8</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F184" s="3"/>
     </row>
@@ -5667,7 +5682,7 @@
         <v>8</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F185" s="3"/>
     </row>
@@ -5685,7 +5700,7 @@
         <v>8</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F186" s="3"/>
     </row>
@@ -5703,7 +5718,7 @@
         <v>8</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F187" s="3"/>
     </row>
@@ -5729,7 +5744,7 @@
         <v>14</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F189" s="3"/>
     </row>
@@ -5747,7 +5762,7 @@
         <v>14</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F190" s="3"/>
     </row>
@@ -5765,7 +5780,7 @@
         <v>14</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F191" s="3"/>
     </row>
@@ -5783,7 +5798,7 @@
         <v>14</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F192" s="3"/>
     </row>
@@ -5801,7 +5816,7 @@
         <v>14</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F193" s="3"/>
     </row>
@@ -5819,10 +5834,10 @@
         <v>8</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5839,10 +5854,10 @@
         <v>8</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5859,10 +5874,10 @@
         <v>8</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5879,10 +5894,10 @@
         <v>8</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5899,10 +5914,10 @@
         <v>8</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5919,10 +5934,10 @@
         <v>8</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5939,10 +5954,10 @@
         <v>8</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5959,10 +5974,10 @@
         <v>8</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5979,10 +5994,10 @@
         <v>8</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -6007,7 +6022,7 @@
         <v>14</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>90</v>
@@ -6030,7 +6045,7 @@
         <v>110</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -6050,7 +6065,7 @@
         <v>111</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -6067,10 +6082,10 @@
         <v>14</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -6087,10 +6102,10 @@
         <v>14</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -6107,10 +6122,10 @@
         <v>8</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -6127,10 +6142,10 @@
         <v>8</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -6147,10 +6162,10 @@
         <v>8</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -6167,10 +6182,10 @@
         <v>8</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
